--- a/TestData/PythonDemo.xlsx
+++ b/TestData/PythonDemo.xlsx
@@ -1017,14 +1017,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.77777777777778" customWidth="1"/>
-    <col min="2" max="2" width="6.88888888888889" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
+    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/TestData/PythonDemo.xlsx
+++ b/TestData/PythonDemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -22,7 +22,7 @@
     <t>firstname</t>
   </si>
   <si>
-    <t>lastname</t>
+    <t>Email</t>
   </si>
   <si>
     <t>gender</t>
@@ -34,7 +34,7 @@
     <t>Amit</t>
   </si>
   <si>
-    <t>Singh</t>
+    <t>ASingh@mailinator.com</t>
   </si>
   <si>
     <t>Male</t>
@@ -43,10 +43,10 @@
     <t>Testcase2</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Sunny</t>
+    <t>Test Peter</t>
+  </si>
+  <si>
+    <t>testpeter@mailinator.com</t>
   </si>
   <si>
     <t>Testcase3</t>
@@ -55,7 +55,7 @@
     <t>Peter</t>
   </si>
   <si>
-    <t>Parker</t>
+    <t>parker@mailinator.com</t>
   </si>
   <si>
     <t>Testcase4</t>
@@ -64,6 +64,9 @@
     <t>Any</t>
   </si>
   <si>
+    <t>peter@mailinator.com</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -73,13 +76,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>M</t>
+    <t>testm@mailinator.com</t>
   </si>
   <si>
     <t>Testcase6</t>
   </si>
   <si>
     <t>R S</t>
+  </si>
+  <si>
+    <t>singh@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -693,8 +699,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,14 +1024,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.77777777777778" customWidth="1"/>
     <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
-    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="26.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1048,7 +1055,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -1062,7 +1069,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -1076,7 +1083,7 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
@@ -1090,22 +1097,22 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1113,19 +1120,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="ASingh@mailinator.com" tooltip="mailto:ASingh@mailinator.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="testpeter@mailinator.com" tooltip="mailto:testpeter@mailinator.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="parker@mailinator.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="peter@mailinator.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="testm@mailinator.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="singh@mailinator.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
